--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肌肉跳動</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +461,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -494,72 +490,77 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
       <c r="B2" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="D2" s="1">
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E2" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="G2" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="B4" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.11805555555555557</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.23958333333333334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.24722222222222223</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上頭痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天頭痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喉嚨痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +473,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -490,76 +502,77 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="1">
-        <v>7.2916666666666671E-2</v>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.10416666666666667</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.52083333333333337</v>
-      </c>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>0.1875</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.20138888888888887</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>9.375E-2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.12152777777777778</v>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
   </sheetData>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="15285" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,15 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚上頭痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白天頭痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喉嚨痛</t>
+    <t>腹痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +465,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -502,46 +494,45 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.52083333333333337</v>
       </c>
       <c r="C2" s="1">
-        <v>6.25E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>6.25E-2</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.24097222222222223</v>
+      </c>
       <c r="C3" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>0.1875</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -554,25 +545,17 @@
     <row r="6" spans="1:7">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="G6" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="G7" s="1">
-        <v>0.125</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>0.14583333333333334</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
   </sheetData>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -503,7 +503,9 @@
       <c r="C2" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.53125</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -518,7 +520,9 @@
       <c r="C3" s="1">
         <v>0.20138888888888887</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.26041666666666669</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="15285" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="14940" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腹痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +461,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -494,50 +490,40 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.53125</v>
+        <v>0.125</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0.4375</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>0.11805555555555557</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.24097222222222223</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.1875</v>
       </c>
       <c r="D3" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打嗝時有胃裡逆流的感覺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,90 +102,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C0C0C0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -461,10 +397,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -502,7 +441,9 @@
       <c r="F2" s="1">
         <v>0.4375</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -517,13 +458,18 @@
       <c r="F3" s="1">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
@@ -533,11 +479,17 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>0.125</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="9" spans="1:7">

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="14940" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>打嗝時有胃裡逆流的感覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微拉肚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喉嚨有怪怪的感覺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,22 +114,90 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C0C0C0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -394,14 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,23 +565,114 @@
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.4861111111111111</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,19 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打嗝時有胃裡逆流的感覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稍微拉肚子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喉嚨有怪怪的感覺</t>
+    <t>暈眩 耳鳴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手痠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝茶, 有想吐的感覺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +473,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -512,46 +508,59 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="C2" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.125</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.16666666666666666</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -560,119 +569,67 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.4861111111111111</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>0.125</v>
+        <v>0.53125</v>
       </c>
       <c r="B7" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.1875</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6.9444444444444434E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.53125</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.15625</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.23958333333333334</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="1"/>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>喝茶, 有想吐的感覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,90 +114,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C0C0C0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -473,7 +409,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -592,8 +528,12 @@
       <c r="C7" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -607,12 +547,18 @@
       <c r="C8" s="1">
         <v>0.1875</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>喝茶, 有想吐的感覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳鳴數次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,22 +122,90 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C0C0C0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -406,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -575,7 +651,15 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,27 +46,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暈眩 耳鳴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右手痠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝茶, 有想吐的感覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頭痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳鳴數次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頭痛</t>
+    <t>想吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喉嚨痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上吃完要想吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醒來頭不舒服
+乾嘔想吐
+一直打嗝
+喉嚨異物感明顯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝完水藥異物感明顯有點想吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上吃完藥異物感明顯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起來頭痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午過後頭很痛
+吃薄荷後不痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,12 +125,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,16 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
@@ -520,59 +543,58 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F2" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>0.20138888888888887</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>0.23611111111111113</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="1">
-        <v>0.11805555555555557</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E3" s="1">
-        <v>0.26458333333333334</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F3" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="66">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -581,60 +603,68 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.50694444444444442</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>6.25E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D7" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E7" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>0.17569444444444446</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.13958333333333334</v>
-      </c>
-      <c r="C8" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.1875</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.13749999999999998</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="G7" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
@@ -642,24 +672,74 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="33">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,39 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>想吐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喉嚨痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上吃完要想吐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醒來頭不舒服
-乾嘔想吐
-一直打嗝
-喉嚨異物感明顯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝完水藥異物感明顯有點想吐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上吃完藥異物感明顯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上起來頭痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午過後頭很痛
-吃薄荷後不痛</t>
+    <t>肚子痛 想吐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +474,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -544,58 +512,50 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>0.125</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>0.5</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D2" s="1">
-        <v>0.51041666666666663</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.51388888888888895</v>
+        <v>0.53125</v>
       </c>
       <c r="F2" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>7.2222222222222229E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.16666666666666666</v>
-      </c>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="F3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="66">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
@@ -609,51 +569,27 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.50694444444444442</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -677,38 +613,26 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>6.25E-2</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>0.16666666666666666</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -115,74 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -194,7 +124,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C0C0C0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -473,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -569,18 +499,30 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.13194444444444445</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -670,32 +612,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肚子痛 想吐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +400,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -444,44 +440,36 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.52083333333333337</v>
-      </c>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="F3" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.1875</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -499,30 +487,18 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.48958333333333331</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.13194444444444445</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽冷忽熱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +404,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -467,7 +471,9 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -492,20 +492,40 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.17708333333333334</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -507,7 +507,9 @@
       <c r="F6" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
@@ -526,10 +528,14 @@
       <c r="F7" s="1">
         <v>0.17708333333333334</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>0.53125</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -538,7 +544,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,7 +44,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忽冷忽熱</t>
+    <t>感覺有比較舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐後異物感嚴重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓力大有想吐跟吃不下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +412,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -442,43 +450,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.51041666666666663</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="C3" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="E3" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F3" s="1">
-        <v>0.25</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
@@ -492,50 +512,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.2083333333333336E-2</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>0.53125</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -544,9 +538,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>0.16666666666666666</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -461,7 +461,9 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -480,7 +482,9 @@
       <c r="F3" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
@@ -511,7 +515,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -520,7 +526,9 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,23 @@
   </si>
   <si>
     <t>壓力大有想吐跟吃不下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上想吐吃不下
+起床手腳感覺奇怪
+肌肉跳動明顯
+晚上輕微頭痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃不下
+肌肉跳動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上想吐
+晚上想吐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,14 +429,15 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
@@ -518,10 +536,18 @@
       <c r="A6" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -529,19 +555,33 @@
       <c r="A7" s="1">
         <v>0.14583333333333334</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="66">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,32 +45,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感覺有比較舒服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐後異物感嚴重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壓力大有想吐跟吃不下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上想吐吃不下
-起床手腳感覺奇怪
-肌肉跳動明顯
-晚上輕微頭痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午吃不下
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上沒食慾
+邊吃早餐邊有反胃感
+但可以硬吃下去
+吃到一半就打嗝 是脹氣?
 肌肉跳動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上想吐
-晚上想吐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +123,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,16 +421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
@@ -443,149 +438,108 @@
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>0.15277777777777776</v>
+      </c>
       <c r="B4" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.2902777777777778</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="82.5">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.14583333333333334</v>
-      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="66">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="1"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -594,7 +548,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -603,7 +557,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -612,7 +566,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -621,7 +575,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -630,7 +584,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -639,7 +593,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -648,7 +602,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -662,4 +616,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -61,7 +61,8 @@
 邊吃早餐邊有反胃感
 但可以硬吃下去
 吃到一半就打嗝 是脹氣?
-肌肉跳動</t>
+肌肉跳動
+輕微胃痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +425,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -501,7 +502,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="82.5">
+    <row r="5" spans="1:8" ht="99">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,7 +62,41 @@
 但可以硬吃下去
 吃到一半就打嗝 是脹氣?
 肌肉跳動
-輕微胃痛</t>
+輕微胃痛
+拉肚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上乾嘔
+胸口發涼
+胸悶
+心情煩悶
+忽冷忽熱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上沒食慾
+吃完打嗝
+腹痛拉稀便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上輕微異物感
+吃完晚餐拉肚子
+下午乾嘔
+腹部有點痛
+右後腰痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起來胸口痛胸悶
+跑步想拉肚子
+中午沒食慾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃完麵想吐
+下午胸口痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +459,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -433,7 +467,7 @@
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
@@ -481,12 +515,22 @@
       <c r="B3" s="1">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>0.53472222222222221</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5">
@@ -495,20 +539,36 @@
       <c r="B4" s="1">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.15277777777777776</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="99">
+      <c r="H4" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="115.5">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -532,29 +592,53 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="1">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.21875</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -624,7 +708,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -649,21 +733,33 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -674,30 +770,48 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
+      <c r="B10">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
+      <c r="B11">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>3</v>
+      </c>
+      <c r="B13">
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   <si>
     <t>中午吃完麵想吐
 下午胸口痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -608,7 +612,9 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -628,6 +634,9 @@
         <v>0.21875</v>
       </c>
       <c r="G9" s="2"/>
+      <c r="H9" s="5">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
       <c r="A10" s="1"/>
@@ -671,7 +680,9 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="1">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -680,7 +691,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="1">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -705,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,6 +836,17 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,27 @@
   </si>
   <si>
     <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午有吐
+右腰痛
+莫名緊張</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃完乾嘔
+晚上吃完想吐
+吃完一直打嗝
+吃完有異物感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上吃完一直打嗝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -473,7 +494,7 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -683,31 +704,57 @@
       <c r="B14" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.47916666666666669</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="C15" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="66">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -718,10 +765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -848,6 +895,34 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -121,7 +121,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早上吃完一直打嗝</t>
+    <t>早上吃完一直打嗝還有乾嘔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,17 @@
   </si>
   <si>
     <t>早上吃完一直打嗝還有乾嘔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐時沒食慾
+吃完一直想吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上沒食慾
+吃完早餐有點胃痛
+胸有點痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -496,9 +507,11 @@
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -524,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -533,7 +546,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -557,7 +570,7 @@
         <v>0.53472222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>0.15277777777777776</v>
       </c>
@@ -581,7 +594,7 @@
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="115.5">
+    <row r="5" spans="1:9" ht="115.5">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -598,7 +611,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -607,7 +620,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -616,7 +629,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="B8" s="1">
         <v>0.53472222222222221</v>
       </c>
@@ -637,7 +650,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>0.1875</v>
@@ -659,7 +672,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
+    <row r="10" spans="1:9" ht="49.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -672,7 +685,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -681,7 +694,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -690,7 +703,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -699,7 +712,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>0.51388888888888895</v>
@@ -719,8 +732,14 @@
       <c r="G14" s="1">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>0.20833333333333334</v>
@@ -740,8 +759,14 @@
       <c r="G15" s="1">
         <v>0.11458333333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="66">
+      <c r="H15" s="5">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.18055555555555555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="66">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -754,6 +779,12 @@
       </c>
       <c r="G16" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -765,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -923,6 +954,16 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +123,47 @@
   </si>
   <si>
     <t>早上吃完一直打嗝還有乾嘔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上中午沒食慾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上乾嘔
+感覺噁心煩悶
+晚餐吃不完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐有噁心感
+吃完不太舒服
+中午吃完有吐
+晚餐吃完胸痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考題趨勢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算機概論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布林代數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序法時間複雜度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料結構圖形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數位邏輯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +228,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,17 +526,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
@@ -756,6 +801,45 @@
         <v>20</v>
       </c>
     </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="5">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.11805555555555557</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="66">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,10 +849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -923,6 +1007,73 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -801,7 +801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:7">
       <c r="C19" s="5">
         <v>0.47916666666666669</v>
       </c>
@@ -814,8 +814,11 @@
       <c r="F19" s="5">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="G19" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
       <c r="C20" s="5">
         <v>0.13541666666666666</v>
       </c>
@@ -828,8 +831,11 @@
       <c r="F20" s="5">
         <v>0.11805555555555557</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="66">
+      <c r="G20" s="5">
+        <v>0.11805555555555557</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="66">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -849,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1025,6 +1031,11 @@
     <row r="25" spans="1:2">
       <c r="B25">
         <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,49 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早上沒食慾
-邊吃早餐邊有反胃感
-但可以硬吃下去
-吃到一半就打嗝 是脹氣?
-肌肉跳動
-輕微胃痛
-拉肚子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上乾嘔
-胸口發涼
-胸悶
-心情煩悶
-忽冷忽熱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上沒食慾
-吃完打嗝
-腹痛拉稀便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上輕微異物感
-吃完晚餐拉肚子
-下午乾嘔
-腹部有點痛
-右後腰痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上起來胸口痛胸悶
-跑步想拉肚子
-中午沒食慾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午吃完麵想吐
-下午胸口痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,40 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中午有吐
-右腰痛
-莫名緊張</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午吃完乾嘔
-晚上吃完想吐
-吃完一直打嗝
-吃完有異物感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上吃完一直打嗝還有乾嘔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上中午沒食慾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上乾嘔
-感覺噁心煩悶
-晚餐吃不完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃早餐有噁心感
-吃完不太舒服
-中午吃完有吐
-晚餐吃完胸痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考題趨勢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +87,32 @@
   </si>
   <si>
     <t>數位邏輯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO27001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上吃早餐覺得噁心
+吃完乾嘔
+中午吃飯前乾嘔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -571,74 +520,56 @@
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.47222222222222227</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>0.5</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="F3" s="1">
-        <v>0.5</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>0.53472222222222221</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.16458333333333333</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.13472222222222222</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.15277777777777776</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>0.3263888888888889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="115.5">
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="49.5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -662,58 +593,30 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="1">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.21875</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="5">
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="49.5">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -746,105 +649,48 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2"/>
-      <c r="B14" s="1">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.11458333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="66">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="5">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.11805555555555557</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.11805555555555557</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="66">
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="D21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -855,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -867,24 +713,18 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -892,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -908,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -920,49 +760,31 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>4.5</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>4.5</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
@@ -973,69 +795,15 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1046,43 +814,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
     <t>早上吃早餐覺得噁心
 吃完乾嘔
 中午吃飯前乾嘔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上沒吃早餐前乾嘔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -571,7 +575,9 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
@@ -703,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,11 @@
   </si>
   <si>
     <t>早上沒吃早餐前乾嘔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐時噁心
+吃完打嗝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +487,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -536,8 +541,12 @@
       <c r="F2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.48958333333333331</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5"/>
@@ -554,8 +563,12 @@
       <c r="F3" s="1">
         <v>0.22916666666666666</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5"/>
@@ -590,7 +603,9 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -599,7 +614,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -607,9 +624,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="33">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -710,7 +729,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -761,15 +780,24 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
   <si>
     <t>吃早餐時噁心
 吃完打嗝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上嚴重乾嘔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -606,10 +610,16 @@
       <c r="B7" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.53472222222222221</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -617,10 +627,16 @@
       <c r="B8" s="1">
         <v>0.14583333333333334</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
@@ -629,7 +645,9 @@
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -728,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -804,6 +822,9 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -814,10 +835,16 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
+      <c r="B12">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>3</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/sleep.xlsx
+++ b/sleep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13995" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,22 +110,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早上吃早餐覺得噁心
-吃完乾嘔
-中午吃飯前乾嘔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上沒吃早餐前乾嘔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃早餐時噁心
-吃完打嗝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上嚴重乾嘔</t>
+    <t>早上吃早餐有噁心
+左胸痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,15 +476,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
@@ -532,47 +518,27 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>0.46875</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.48958333333333331</v>
-      </c>
+      <c r="B2" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="1">
         <v>0.22916666666666666</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.14583333333333334</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5"/>
@@ -586,15 +552,13 @@
     </row>
     <row r="5" spans="1:8" ht="49.5">
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
@@ -607,47 +571,27 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="1">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.48958333333333331</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.53472222222222221</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="1">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.20833333333333334</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>0.20138888888888887</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.29166666666666669</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="33">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -746,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -761,70 +705,49 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -835,16 +758,10 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>4.5</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>3</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
